--- a/02_23_Instacart Basket Analysis/05 Sent to Client/Final_report.xlsx
+++ b/02_23_Instacart Basket Analysis/05 Sent to Client/Final_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/cdbaenaa_unal_edu_co/Documents/Weiterbildung/Exercises/Data_Inmersion/Achivement4/Task10/02_23_InstacartBasketAnalysis/05 Sent to Client/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/cdbaenaa_unal_edu_co/Documents/Weiterbildung/Exercises/Data_Inmersion/Achivement4/Task10/02_23_Instacart Basket Analysis/05 Sent to Client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="838" documentId="11_EEEB0DA86BED5BBBCCFF3D00742756C646335846" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F48CD70-FE64-4B02-9524-39F42EFEBF1B}"/>
+  <xr:revisionPtr revIDLastSave="843" documentId="11_EEEB0DA86BED5BBBCCFF3D00742756C646335846" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7902786-1A17-4CC4-B0CD-F4C2E50CBA83}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> shows that early in the morning, high-priced products are sold. However, the number of people that order is deficient. Therefore, we would recomend investing more in marketing strategies that are focused on the busiest hours of the day (9 am to 3 pm)</t>
+      <t xml:space="preserve"> shows that early in the morning, high-priced products are sold. However, the number of people that order is deficient. Therefore, we would recomend investing more in marketing strategies that are focused on the busiest hours of the day (9 am to 5 pm)</t>
     </r>
   </si>
 </sst>
@@ -19274,7 +19274,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-CO" sz="2400" baseline="0"/>
-            <a:t>- The busiest hours of the day are between 9 am and 3 pm.</a:t>
+            <a:t>- The busiest hours of the day are between 9 am and 5 pm.</a:t>
           </a:r>
           <a:endParaRPr lang="LID4096" sz="2400"/>
         </a:p>
@@ -20903,8 +20903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B13:C31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -21013,7 +21013,7 @@
   <dimension ref="Y1:Y6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -21210,9 +21210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -21378,8 +21376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -21589,8 +21587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD264" sqref="AD264"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC197" sqref="AC197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -21633,8 +21631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
